--- a/com.synet.tool.rsc/src/com/synet/tool/rsc/common.xlsx
+++ b/com.synet.tool.rsc/src/com/synet/tool/rsc/common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -89,6 +89,38 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -96,33 +128,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -136,7 +143,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -150,7 +164,28 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -163,21 +198,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -192,27 +212,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -238,6 +238,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,25 +316,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,139 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +459,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -474,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -490,57 +514,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -557,6 +530,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,139 +585,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -738,14 +741,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1078,52 +1084,52 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="15" width="19.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="1"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="2" customWidth="1"/>
+    <col min="3" max="15" width="19.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" spans="1:2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="13.5" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" ht="28.5" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
